--- a/example/Resources/template.xlsx
+++ b/example/Resources/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miyako/Documents/GitHub/4d-topic-export-xlsx/example/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2ABC4E-892A-2543-BC7F-0F94582A087E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A6C409-6581-FF4F-9B1B-8FC2B706FF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1480" windowWidth="19300" windowHeight="12700" xr2:uid="{03C91E25-4A39-7245-BDC0-BC3983CD038D}"/>
+    <workbookView xWindow="14900" yWindow="6900" windowWidth="10680" windowHeight="8780" xr2:uid="{03C91E25-4A39-7245-BDC0-BC3983CD038D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,8 +79,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -155,10 +155,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,7 +478,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/example/Resources/template.xlsx
+++ b/example/Resources/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miyako/Documents/GitHub/4d-topic-export-xlsx/example/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A6C409-6581-FF4F-9B1B-8FC2B706FF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE3CD67-B445-9E4C-B00A-5037B38F64EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14900" yWindow="6900" windowWidth="10680" windowHeight="8780" xr2:uid="{03C91E25-4A39-7245-BDC0-BC3983CD038D}"/>
+    <workbookView xWindow="1700" yWindow="2180" windowWidth="23880" windowHeight="13500" xr2:uid="{03C91E25-4A39-7245-BDC0-BC3983CD038D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -478,7 +478,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -510,7 +510,6 @@
         <v>3</v>
       </c>
       <c r="B2" s="4">
-        <f ca="1">TODAY()</f>
         <v>45376</v>
       </c>
       <c r="C2" s="1" t="b">
@@ -518,8 +517,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <f>PI()</f>
-        <v>3.1415926535897931</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>IF(C2,"yes","no")</f>

--- a/example/Resources/template.xlsx
+++ b/example/Resources/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miyako/Documents/GitHub/4d-topic-export-xlsx/example/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE3CD67-B445-9E4C-B00A-5037B38F64EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C865C5D-6CA0-1349-87F4-B613AFE0E509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="2180" windowWidth="23880" windowHeight="13500" xr2:uid="{03C91E25-4A39-7245-BDC0-BC3983CD038D}"/>
   </bookViews>
@@ -510,6 +510,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4">
+        <f ca="1">TODAY()</f>
         <v>45376</v>
       </c>
       <c r="C2" s="1" t="b">
